--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110814</v>
+        <v>110815</v>
       </c>
       <c r="D14" t="n">
         <v>21135</v>
       </c>
       <c r="E14" t="n">
-        <v>253241833</v>
+        <v>253243499</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7249</v>
+        <v>7250</v>
       </c>
       <c r="D38" t="n">
         <v>1431</v>
       </c>
       <c r="E38" t="n">
-        <v>58537320</v>
+        <v>58549613</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6352</v>
+        <v>6353</v>
       </c>
       <c r="D51" t="n">
         <v>1252</v>
       </c>
       <c r="E51" t="n">
-        <v>12164990</v>
+        <v>12182169</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141676</v>
+        <v>141677</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590050995</v>
+        <v>590053180</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>138096165</v>
+        <v>138291366</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5193</v>
+        <v>5195</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20286199</v>
+        <v>20316077</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D66" t="n">
         <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>9885231</v>
+        <v>9908094</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6271</v>
+        <v>6273</v>
       </c>
       <c r="D72" t="n">
         <v>957</v>
       </c>
       <c r="E72" t="n">
-        <v>15080563</v>
+        <v>15083703</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116587</v>
+        <v>116589</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447322464</v>
+        <v>447328195</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8450</v>
+        <v>8451</v>
       </c>
       <c r="D82" t="n">
         <v>1386</v>
       </c>
       <c r="E82" t="n">
-        <v>124650808</v>
+        <v>124850808</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151083</v>
+        <v>151086</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>481991800</v>
+        <v>482026734</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408965</v>
+        <v>408967</v>
       </c>
       <c r="D92" t="n">
         <v>70903</v>
       </c>
       <c r="E92" t="n">
-        <v>1593197356</v>
+        <v>1593247574</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209447</v>
+        <v>209456</v>
       </c>
       <c r="D93" t="n">
         <v>34258</v>
       </c>
       <c r="E93" t="n">
-        <v>1306995383</v>
+        <v>1307100586</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94126</v>
+        <v>94127</v>
       </c>
       <c r="D94" t="n">
         <v>13794</v>
       </c>
       <c r="E94" t="n">
-        <v>915010409</v>
+        <v>915011909</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50690</v>
+        <v>50692</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>929093177</v>
+        <v>929113177</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17215</v>
+        <v>17219</v>
       </c>
       <c r="D96" t="n">
         <v>2564</v>
       </c>
       <c r="E96" t="n">
-        <v>787075636</v>
+        <v>787375015</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135211</v>
+        <v>135212</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272065024</v>
+        <v>272075024</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4715,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8162</v>
+        <v>8164</v>
       </c>
       <c r="D105" t="n">
         <v>1913</v>
       </c>
       <c r="E105" t="n">
-        <v>16861211</v>
+        <v>16862003</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18331</v>
+        <v>18333</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>41271449</v>
+        <v>41276024</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="D108" t="n">
         <v>741</v>
       </c>
       <c r="E108" t="n">
-        <v>18460239</v>
+        <v>18485757</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4879,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D109" t="n">
         <v>233</v>
       </c>
       <c r="E109" t="n">
-        <v>20562126</v>
+        <v>20732303</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5043,13 +5043,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8800</v>
+        <v>8803</v>
       </c>
       <c r="D113" t="n">
         <v>2144</v>
       </c>
       <c r="E113" t="n">
-        <v>12651124</v>
+        <v>12663437</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11682</v>
+        <v>11685</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32893228</v>
+        <v>32906669</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20411989</v>
+        <v>20417858</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168966</v>
+        <v>168967</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681733793</v>
+        <v>681734390</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D147" t="n">
         <v>86</v>
       </c>
       <c r="E147" t="n">
-        <v>28773228</v>
+        <v>28868306</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>201564</v>
+        <v>201565</v>
       </c>
       <c r="D154" t="n">
         <v>39199</v>
       </c>
       <c r="E154" t="n">
-        <v>786742200</v>
+        <v>786746320</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7011,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D161" t="n">
         <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>3748981</v>
+        <v>3796789</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7093,13 +7093,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>70982</v>
+        <v>70983</v>
       </c>
       <c r="D163" t="n">
         <v>15610</v>
       </c>
       <c r="E163" t="n">
-        <v>131764856</v>
+        <v>131766598</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>22698</v>
+        <v>22699</v>
       </c>
       <c r="D172" t="n">
         <v>5292</v>
       </c>
       <c r="E172" t="n">
-        <v>44668741</v>
+        <v>44669168</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>96856</v>
+        <v>96857</v>
       </c>
       <c r="D173" t="n">
         <v>16841</v>
       </c>
       <c r="E173" t="n">
-        <v>327916192</v>
+        <v>327922035</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226077</v>
+        <v>226079</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900500557</v>
+        <v>900505380</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80776</v>
+        <v>80777</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>485986075</v>
+        <v>485996075</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
